--- a/ResultTable.xlsx
+++ b/ResultTable.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t xml:space="preserve">Problem </t>
   </si>
@@ -37,13 +37,85 @@
   </si>
   <si>
     <t xml:space="preserve">LCV </t>
+  </si>
+  <si>
+    <t>Forward Checking + MCV</t>
+  </si>
+  <si>
+    <t>Forward Checking + MRV</t>
+  </si>
+  <si>
+    <t>Forward Checking + LCV</t>
+  </si>
+  <si>
+    <t>MRV + LCV</t>
+  </si>
+  <si>
+    <t>MCV + LCV</t>
+  </si>
+  <si>
+    <t>Forward Checking + MRV +LCV</t>
+  </si>
+  <si>
+    <t>Forward Checking + MCV +LCV</t>
+  </si>
+  <si>
+    <t>4 x 4</t>
+  </si>
+  <si>
+    <t>9 x 9</t>
+  </si>
+  <si>
+    <t>16 x 16</t>
+  </si>
+  <si>
+    <t>25 x 25</t>
+  </si>
+  <si>
+    <t>Solve Function Arguments</t>
+  </si>
+  <si>
+    <t>False, False, False, False</t>
+  </si>
+  <si>
+    <t>False, False, True, False</t>
+  </si>
+  <si>
+    <t>False, True, False, False</t>
+  </si>
+  <si>
+    <t>False, False, False, True</t>
+  </si>
+  <si>
+    <t>True, False, False, False</t>
+  </si>
+  <si>
+    <t>True, True, False, False</t>
+  </si>
+  <si>
+    <t>True, False, True, False</t>
+  </si>
+  <si>
+    <t>True, False, False, True</t>
+  </si>
+  <si>
+    <t>False, True, False, True</t>
+  </si>
+  <si>
+    <t>False, False, True, True</t>
+  </si>
+  <si>
+    <t>True, True, False, True</t>
+  </si>
+  <si>
+    <t>True, False, True, True</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -56,6 +128,22 @@
       <color theme="1"/>
       <name val="TimesNewRomanPSMT"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -65,7 +153,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -88,19 +176,6 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFDBDBDB"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFBFBFBF"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFC1C1C1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color rgb="FFBFBFBF"/>
       </left>
       <right style="medium">
@@ -132,19 +207,6 @@
         <color rgb="FFBFBFBF"/>
       </left>
       <right style="medium">
-        <color rgb="FFBFBFBF"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFC1C1C1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFBFBFBF"/>
-      </left>
-      <right style="medium">
         <color rgb="FFC1C1C1"/>
       </right>
       <top style="medium">
@@ -155,19 +217,6 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFBFBFBF"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFC1C1C1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFBFBFBF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color rgb="FFC1C1C1"/>
       </left>
       <right style="medium">
@@ -192,19 +241,6 @@
         <color rgb="FFC1C1C1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFC1C1C1"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFC1C1C1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFC1C1C1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -236,13 +272,193 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFC1C1C1"/>
+      <left style="thick">
+        <color rgb="FFC6C6C6"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFBFBFBF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFC1C1C1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD8D8D8"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFBFBFBF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFC1C1C1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFC1C1C1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFBFBFBF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFBFBFBF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFBFBFBF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFBFBFBF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFBFBFBF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFC1C1C1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFC1C1C1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFC1C1C1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFC1C1C1"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFC4C4C4"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFC1C1C1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFC1C1C1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFC4C4C4"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFBFBFBF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFC1C1C1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFC1C1C1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFC1C1C1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFC1C1C1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFC1C1C1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFC1C1C1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFBCBCBC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFBFBFBF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFBFBFBF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFBCBCBC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFC1C1C1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFC1C1C1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFC1C1C1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFC6C6C6"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFBFBFBF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFC1C1C1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFBFBFBF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE0E0E0"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFC1C1C1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFC1C1C1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFC1C1C1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFBCBCBC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFC4C4C4"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFC1C1C1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFC1C1C1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFC4C4C4"/>
       </left>
       <right style="thick">
         <color rgb="FFC6C6C6"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color rgb="FFC1C1C1"/>
+      </top>
       <bottom style="medium">
         <color rgb="FFC1C1C1"/>
       </bottom>
@@ -256,111 +472,40 @@
         <color rgb="FFBFBFBF"/>
       </right>
       <top style="medium">
-        <color rgb="FFC1C1C1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFC6C6C6"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFBFBFBF"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFC1C1C1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFD8D8D8"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFBFBFBF"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFC1C1C1"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFC1C1C1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFBFBFBF"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFBFBFBF"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFBFBFBF"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFBFBFBF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFBFBFBF"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFC1C1C1"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFC1C1C1"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFC1C1C1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFC1C1C1"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFC4C4C4"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFC1C1C1"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFC1C1C1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFC4C4C4"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFBFBFBF"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFC1C1C1"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFC1C1C1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFDDDDDD"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFC1C1C1"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFC1C1C1"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFC1C1C1"/>
+        <color rgb="FFBFBFBF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFBFBFBF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE0E0E0"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFC1C1C1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFC1C1C1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFBFBFBF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFC1C1C1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFC1C1C1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFC1C1C1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFBFBFBF"/>
       </bottom>
       <diagonal/>
     </border>
@@ -373,66 +518,6 @@
       </right>
       <top style="medium">
         <color rgb="FFBFBFBF"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFBFBFBF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFBCBCBC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFC1C1C1"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFC1C1C1"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFC1C1C1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFC6C6C6"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFBFBFBF"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFC1C1C1"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFBFBFBF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFE0E0E0"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFC1C1C1"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFC1C1C1"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFC1C1C1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFBCBCBC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFC4C4C4"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFC1C1C1"/>
       </top>
       <bottom style="medium">
         <color rgb="FFC1C1C1"/>
@@ -450,189 +535,157 @@
         <color rgb="FFC1C1C1"/>
       </top>
       <bottom style="medium">
-        <color rgb="FFC1C1C1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFC6C6C6"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFBFBFBF"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFBFBFBF"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFBFBFBF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFE0E0E0"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFC1C1C1"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFC1C1C1"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFBFBFBF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFC1C1C1"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFC1C1C1"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFC1C1C1"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFBFBFBF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFC1C1C1"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFBCBCBC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFBFBFBF"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFC1C1C1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFC4C4C4"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFC6C6C6"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFC1C1C1"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFBFBFBF"/>
-      </bottom>
+        <color rgb="FFBFBFBF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFBFBFBF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFC1C1C1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="23">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -962,84 +1015,178 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:13" ht="33" customHeight="1" thickBot="1">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>5</v>
+      <c r="G1" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="26" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16" thickBot="1">
-      <c r="A2" s="22"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="32"/>
+    <row r="2" spans="1:13" ht="33" customHeight="1" thickBot="1">
+      <c r="A2" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" ht="16" thickBot="1">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6"/>
+    <row r="3" spans="1:13" ht="16" thickBot="1">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="1:6" ht="16" thickBot="1">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="12"/>
+    <row r="4" spans="1:13" ht="16" thickBot="1">
+      <c r="A4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:6" ht="16" thickBot="1">
-      <c r="A5" s="13"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16"/>
+    <row r="5" spans="1:13" ht="16" thickBot="1">
+      <c r="A5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="16"/>
     </row>
-    <row r="6" spans="1:6" ht="16" thickBot="1">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="16"/>
+    <row r="6" spans="1:13" ht="16" thickBot="1">
+      <c r="A6" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/ResultTable.xlsx
+++ b/ResultTable.xlsx
@@ -153,7 +153,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -163,391 +163,17 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFDBDBDB"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color rgb="FFBFBFBF"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color rgb="FFC1C1C1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFBFBFBF"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFBFBFBF"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFC1C1C1"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color rgb="FFC1C1C1"/>
+        <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFBFBFBF"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFBFBFBF"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFC1C1C1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFBFBFBF"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFC1C1C1"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFC1C1C1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFC1C1C1"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFC1C1C1"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFC1C1C1"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFC1C1C1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFC1C1C1"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFC1C1C1"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFC1C1C1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFC1C1C1"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFC6C6C6"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFC1C1C1"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFC1C1C1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFC1C1C1"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFC6C6C6"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFC1C1C1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFC6C6C6"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFBFBFBF"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFC1C1C1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFD8D8D8"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFBFBFBF"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFC1C1C1"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFC1C1C1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFBFBFBF"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFBFBFBF"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFBFBFBF"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFBFBFBF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFBFBFBF"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFC1C1C1"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFC1C1C1"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFC1C1C1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFC1C1C1"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFC4C4C4"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFC1C1C1"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFC1C1C1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFC4C4C4"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFBFBFBF"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFC1C1C1"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFC1C1C1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFDDDDDD"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFC1C1C1"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFC1C1C1"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFC1C1C1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFC1C1C1"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFBCBCBC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFBFBFBF"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFBFBFBF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFBCBCBC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFC1C1C1"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFC1C1C1"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFC1C1C1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFC6C6C6"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFBFBFBF"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFC1C1C1"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFBFBFBF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFE0E0E0"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFC1C1C1"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFC1C1C1"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFC1C1C1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFBCBCBC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFC4C4C4"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFC1C1C1"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFC1C1C1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFC4C4C4"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFC6C6C6"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFC1C1C1"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFC1C1C1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFC6C6C6"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFBFBFBF"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFBFBFBF"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFBFBFBF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFE0E0E0"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFC1C1C1"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFC1C1C1"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFBFBFBF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFC1C1C1"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFC1C1C1"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFC1C1C1"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFBFBFBF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFC1C1C1"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFBCBCBC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFBFBFBF"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFC1C1C1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFC4C4C4"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFC6C6C6"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFC1C1C1"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFBFBFBF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFBFBFBF"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFC1C1C1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -576,90 +202,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1018,7 +569,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1035,154 +586,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="33" customHeight="1" thickBot="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="33" customHeight="1" thickBot="1">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="K2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="24" t="s">
+      <c r="L2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="24" t="s">
+      <c r="M2" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="16" thickBot="1">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
       <c r="K3" s="3"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="5"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
     </row>
     <row r="4" spans="1:13" ht="16" thickBot="1">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="11"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="16" thickBot="1">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="16"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:13" ht="16" thickBot="1">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="20"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ResultTable.xlsx
+++ b/ResultTable.xlsx
@@ -569,7 +569,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -593,10 +593,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>5</v>
@@ -671,68 +671,148 @@
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
+      <c r="B3" s="3">
+        <v>25</v>
+      </c>
+      <c r="C3" s="3">
+        <v>25</v>
+      </c>
+      <c r="D3" s="3">
+        <v>37</v>
+      </c>
+      <c r="E3" s="3">
+        <v>11</v>
+      </c>
+      <c r="F3" s="3">
+        <v>11</v>
+      </c>
+      <c r="G3" s="3">
+        <v>11</v>
+      </c>
+      <c r="H3" s="3">
+        <v>12</v>
+      </c>
+      <c r="I3" s="3">
+        <v>11</v>
+      </c>
+      <c r="J3" s="3">
+        <v>11</v>
+      </c>
+      <c r="K3" s="3">
+        <v>11</v>
+      </c>
+      <c r="L3" s="3">
+        <v>11</v>
+      </c>
+      <c r="M3" s="3">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" spans="1:13" ht="16" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
+      <c r="B4" s="3">
+        <v>1201</v>
+      </c>
+      <c r="C4" s="3">
+        <v>229</v>
+      </c>
+      <c r="D4" s="3">
+        <v>151510</v>
+      </c>
+      <c r="E4" s="3">
+        <v>129</v>
+      </c>
+      <c r="F4" s="3">
+        <v>72</v>
+      </c>
+      <c r="G4" s="3">
+        <v>45</v>
+      </c>
+      <c r="H4" s="3">
+        <v>300</v>
+      </c>
+      <c r="I4" s="3">
+        <v>86</v>
+      </c>
+      <c r="J4" s="3">
+        <v>45</v>
+      </c>
+      <c r="K4" s="3">
+        <v>4500</v>
+      </c>
+      <c r="L4" s="3">
+        <v>45</v>
+      </c>
+      <c r="M4" s="3">
+        <v>74</v>
+      </c>
     </row>
     <row r="5" spans="1:13" ht="16" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="B5" s="3">
+        <v>3025796</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1364</v>
+      </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="E5" s="3">
+        <v>203774</v>
+      </c>
+      <c r="F5" s="3">
+        <v>37430</v>
+      </c>
+      <c r="G5" s="3">
+        <v>143</v>
+      </c>
       <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="I5" s="3">
+        <v>34815</v>
+      </c>
+      <c r="J5" s="3">
+        <v>127</v>
+      </c>
       <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
+      <c r="L5" s="3">
+        <v>127</v>
+      </c>
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:13" ht="16" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="B6" s="3">
+        <v>17686306</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3481</v>
+      </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="E6" s="3">
+        <v>437872</v>
+      </c>
+      <c r="F6" s="3">
+        <v>44011</v>
+      </c>
+      <c r="G6" s="3">
+        <v>258</v>
+      </c>
       <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+      <c r="I6" s="3">
+        <v>16962</v>
+      </c>
+      <c r="J6" s="3">
+        <v>261</v>
+      </c>
       <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
+      <c r="L6" s="3">
+        <v>261</v>
+      </c>
       <c r="M6" s="3"/>
     </row>
   </sheetData>

--- a/ResultTable.xlsx
+++ b/ResultTable.xlsx
@@ -569,7 +569,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -731,7 +731,7 @@
         <v>45</v>
       </c>
       <c r="H4" s="3">
-        <v>300</v>
+        <v>553</v>
       </c>
       <c r="I4" s="3">
         <v>86</v>

--- a/ResultTable.xlsx
+++ b/ResultTable.xlsx
@@ -569,7 +569,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -690,7 +690,7 @@
         <v>11</v>
       </c>
       <c r="H3" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I3" s="3">
         <v>11</v>
